--- a/uploads/lyceum1524.xlsx
+++ b/uploads/lyceum1524.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC0BD53-66DB-456E-B695-BCBD89F10299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D65F14-E493-43AE-8FDC-C8EA40519DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,10 @@
     <t>Phizika</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>Nadezhda Ivanovna</t>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
   </si>
   <si>
     <t>Классный руководитель</t>
@@ -403,7 +403,7 @@
   <dimension ref="C2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +441,7 @@
   <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/uploads/lyceum1524.xlsx
+++ b/uploads/lyceum1524.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D65F14-E493-43AE-8FDC-C8EA40519DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AFF7F-B615-41A1-8D9D-4399CA04DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учебный план" sheetId="1" r:id="rId1"/>
     <sheet name="Учителя" sheetId="2" r:id="rId2"/>
+    <sheet name="Типы аудиторий" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Кол-во уроков в день макс.</t>
   </si>
@@ -32,13 +33,48 @@
     <t>Phizika</t>
   </si>
   <si>
-    <t>11A</t>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>5G</t>
   </si>
   <si>
     <t>Ivanov</t>
   </si>
   <si>
     <t>Классный руководитель</t>
+  </si>
+  <si>
+    <t>Uchitel2</t>
+  </si>
+  <si>
+    <t>Uchitel3</t>
+  </si>
+  <si>
+    <t>Типы аудиторий
+ введите в столбце "B",
+начиная с ячейки B3</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Спортзал</t>
+  </si>
+  <si>
+    <t>Большая аудитория</t>
   </si>
 </sst>
 </file>
@@ -92,11 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F3"/>
+  <dimension ref="C2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:6" ht="134.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -418,17 +457,53 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -438,10 +513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,12 +524,12 @@
     <col min="1" max="1" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -462,25 +537,145 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="E3 F3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="E3 E4 E5 F3 F4 F5 G3 G4 G5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showErrorMessage="1" sqref="E3 E4 E5 H3 H4 H5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$B$3:$B$120</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>